--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/27.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/27.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2763242292625614</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.600813534662429</v>
+        <v>-1.59808025045829</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1510957186607378</v>
+        <v>0.1536393335607597</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2450250814440359</v>
+        <v>-0.2457459822015916</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2754317286870063</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.533828789926796</v>
+        <v>-1.529538013802131</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1000912030541103</v>
+        <v>0.101550318779556</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2483509838473442</v>
+        <v>-0.2490923468534769</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2699585844679041</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.489921526538114</v>
+        <v>-1.483459391035614</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09591847836354218</v>
+        <v>0.09711315887660942</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2583176729234202</v>
+        <v>-0.2590055192794286</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2583427137213675</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.559247624716681</v>
+        <v>-1.5530011298338</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1233001149976889</v>
+        <v>0.12376130260023</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2354896736071963</v>
+        <v>-0.2355227280087436</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2432623920482356</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.593137043407846</v>
+        <v>-1.588158420927172</v>
       </c>
       <c r="F6" t="n">
-        <v>0.108737290087415</v>
+        <v>0.1080762020564687</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2612736808332229</v>
+        <v>-0.2613838621717139</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2269315136778937</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.479706142440872</v>
+        <v>-1.475217039906923</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1223525554866659</v>
+        <v>0.1205739138795962</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.253139150014341</v>
+        <v>-0.2531517421673113</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2103413563455826</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.264201675476671</v>
+        <v>-1.261625006175101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1595497753612438</v>
+        <v>0.156436365539311</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2592494922432302</v>
+        <v>-0.2593675436773278</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1950426338284039</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.006068048650282</v>
+        <v>-1.005713107338429</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1817686292775243</v>
+        <v>0.1775628501854089</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2565531974884421</v>
+        <v>-0.2568066145669715</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1839163659517667</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5928927513662157</v>
+        <v>-0.5938450329346027</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1708937311684579</v>
+        <v>0.1661559336133428</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1651609252483603</v>
+        <v>-0.164677701378121</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1764699463256408</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2191907056061277</v>
+        <v>-0.2218492239020046</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1406473797335438</v>
+        <v>0.1361000384921061</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1291930143075183</v>
+        <v>-0.1291631079442136</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1650565077571194</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2423022566445062</v>
+        <v>0.2388551547688577</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1050981578789678</v>
+        <v>0.102052430879251</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03891672162443863</v>
+        <v>-0.0388395946874949</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1376631757604214</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7678310388070159</v>
+        <v>0.7622495670028836</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.004699119946482978</v>
+        <v>-0.005706492184115418</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05500185130533081</v>
+        <v>0.05487278173738416</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.08719507870193501</v>
       </c>
       <c r="E14" t="n">
-        <v>1.313135797209547</v>
+        <v>1.30641001350423</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2286914850222987</v>
+        <v>-0.230635398637105</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1592050651736789</v>
+        <v>0.1587076751313479</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.0133663355992733</v>
       </c>
       <c r="E15" t="n">
-        <v>1.874668692752689</v>
+        <v>1.867709954217419</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4403089117664483</v>
+        <v>-0.4422575474386186</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2928471586677138</v>
+        <v>0.2923466205871402</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.07883168998786655</v>
       </c>
       <c r="E16" t="n">
-        <v>2.346877577181138</v>
+        <v>2.338818599280079</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6651543952060089</v>
+        <v>-0.6661538973480349</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4371705459188952</v>
+        <v>0.4367597269282357</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1795942189997731</v>
       </c>
       <c r="E17" t="n">
-        <v>2.802324731986856</v>
+        <v>2.793310324479167</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8790344744370284</v>
+        <v>-0.8784418562378586</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5565236938297624</v>
+        <v>0.5555131735538874</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2820182195181633</v>
       </c>
       <c r="E18" t="n">
-        <v>3.225049603279854</v>
+        <v>3.216491661317342</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.207235562448117</v>
+        <v>-1.206579196474534</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6780159337264774</v>
+        <v>0.6768102350795611</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3825276369234547</v>
       </c>
       <c r="E19" t="n">
-        <v>3.599228576833696</v>
+        <v>3.590913033815864</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.50687056443628</v>
+        <v>-1.504966001299506</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8390160535678395</v>
+        <v>0.8379016480299586</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4781547737592908</v>
       </c>
       <c r="E20" t="n">
-        <v>3.72453151702308</v>
+        <v>3.713862815418904</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.842785133151302</v>
+        <v>-1.840964780037518</v>
       </c>
       <c r="G20" t="n">
-        <v>1.015304621134395</v>
+        <v>1.014261046456973</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5670826559029568</v>
       </c>
       <c r="E21" t="n">
-        <v>3.974318907458771</v>
+        <v>3.963796589632876</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.079794636360274</v>
+        <v>-2.077289584928724</v>
       </c>
       <c r="G21" t="n">
-        <v>1.183134409943081</v>
+        <v>1.182271847464608</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6493377764968805</v>
       </c>
       <c r="E22" t="n">
-        <v>4.179580444991108</v>
+        <v>4.168614253773007</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.375074327439798</v>
+        <v>-2.373970153026206</v>
       </c>
       <c r="G22" t="n">
-        <v>1.323508583218919</v>
+        <v>1.322436676197313</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7257570674630056</v>
       </c>
       <c r="E23" t="n">
-        <v>4.404526665654433</v>
+        <v>4.394378964379407</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.50717545621408</v>
+        <v>-2.505584122882444</v>
       </c>
       <c r="G23" t="n">
-        <v>1.494596591608697</v>
+        <v>1.493949669749843</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7975868434704871</v>
       </c>
       <c r="E24" t="n">
-        <v>4.532133969837401</v>
+        <v>4.522260147889481</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.621771918340376</v>
+        <v>-2.620319098691416</v>
       </c>
       <c r="G24" t="n">
-        <v>1.598588886914791</v>
+        <v>1.59788530036757</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8649386375742941</v>
       </c>
       <c r="E25" t="n">
-        <v>4.672829243013984</v>
+        <v>4.664142231483526</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.817484668873343</v>
+        <v>-2.817499622054995</v>
       </c>
       <c r="G25" t="n">
-        <v>1.661777884539407</v>
+        <v>1.66109161220252</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9260168615872879</v>
       </c>
       <c r="E26" t="n">
-        <v>4.785913072764711</v>
+        <v>4.778400279498743</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.907435926607874</v>
+        <v>-2.907546107946365</v>
       </c>
       <c r="G26" t="n">
-        <v>1.704764346742129</v>
+        <v>1.704498337510629</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9783641693743246</v>
       </c>
       <c r="E27" t="n">
-        <v>4.895598595232549</v>
+        <v>4.890237486105399</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.979808538795719</v>
+        <v>-2.980828503186322</v>
       </c>
       <c r="G27" t="n">
-        <v>1.755068423839778</v>
+        <v>1.755239991923999</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.02008195442051</v>
       </c>
       <c r="E28" t="n">
-        <v>4.895068150788671</v>
+        <v>4.89011786065218</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.068847652449457</v>
+        <v>-3.07067981070665</v>
       </c>
       <c r="G28" t="n">
-        <v>1.796112546446814</v>
+        <v>1.796726413904122</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.049481680553163</v>
       </c>
       <c r="E29" t="n">
-        <v>4.903807104950132</v>
+        <v>4.899788634133452</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.082569951148956</v>
+        <v>-3.08487431514254</v>
       </c>
       <c r="G29" t="n">
-        <v>1.72748059070074</v>
+        <v>1.72757660586714</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.065006293704369</v>
       </c>
       <c r="E30" t="n">
-        <v>4.845552657270794</v>
+        <v>4.841466503631897</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.072302624420712</v>
+        <v>-3.074888737837008</v>
       </c>
       <c r="G30" t="n">
-        <v>1.69118843182091</v>
+        <v>1.691523697893748</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.065242737447462</v>
       </c>
       <c r="E31" t="n">
-        <v>4.720054538710368</v>
+        <v>4.716582252528779</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.060778443424109</v>
+        <v>-3.064187768840846</v>
       </c>
       <c r="G31" t="n">
-        <v>1.632428724003635</v>
+        <v>1.632809636630989</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.049633509819157</v>
       </c>
       <c r="E32" t="n">
-        <v>4.639488369986593</v>
+        <v>4.636947903124813</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.021968640959758</v>
+        <v>-3.025474768552455</v>
       </c>
       <c r="G32" t="n">
-        <v>1.594699485666057</v>
+        <v>1.595464458959009</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.018668031392598</v>
       </c>
       <c r="E33" t="n">
-        <v>4.56082519038047</v>
+        <v>4.560308912108683</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.952814897874973</v>
+        <v>-2.956520925896076</v>
       </c>
       <c r="G33" t="n">
-        <v>1.565156720778365</v>
+        <v>1.56684564329552</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9734111382688886</v>
       </c>
       <c r="E34" t="n">
-        <v>4.358662896497973</v>
+        <v>4.357392663067084</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.880513116547586</v>
+        <v>-2.88476454219422</v>
       </c>
       <c r="G34" t="n">
-        <v>1.514594504544823</v>
+        <v>1.516796557295522</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9158159563472267</v>
       </c>
       <c r="E35" t="n">
-        <v>4.133661585165404</v>
+        <v>4.132838373164963</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.848704551134781</v>
+        <v>-2.853572992276965</v>
       </c>
       <c r="G35" t="n">
-        <v>1.393524101772616</v>
+        <v>1.395395610507843</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8489993569088522</v>
       </c>
       <c r="E36" t="n">
-        <v>3.982305480480251</v>
+        <v>3.982368441245103</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.823406915817237</v>
+        <v>-2.828644464443365</v>
       </c>
       <c r="G36" t="n">
-        <v>1.366940492832969</v>
+        <v>1.369436887159352</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7764926154848716</v>
       </c>
       <c r="E37" t="n">
-        <v>3.786157513660244</v>
+        <v>3.786883136475164</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.75958752353454</v>
+        <v>-2.764858913571776</v>
       </c>
       <c r="G37" t="n">
-        <v>1.279916123654496</v>
+        <v>1.2820741038698</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7009977255923484</v>
       </c>
       <c r="E38" t="n">
-        <v>3.715887004008896</v>
+        <v>3.71829997532185</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.728169314863818</v>
+        <v>-2.734115172094531</v>
       </c>
       <c r="G38" t="n">
-        <v>1.236555044900905</v>
+        <v>1.239455962141462</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6240961919142918</v>
       </c>
       <c r="E39" t="n">
-        <v>3.505498886198483</v>
+        <v>3.508609147982173</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.745540189886492</v>
+        <v>-2.752013343522841</v>
       </c>
       <c r="G39" t="n">
-        <v>1.161381465686706</v>
+        <v>1.164222570200653</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5465015429626014</v>
       </c>
       <c r="E40" t="n">
-        <v>3.25969061610144</v>
+        <v>3.262881152860316</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.710717377856396</v>
+        <v>-2.71769185658288</v>
       </c>
       <c r="G40" t="n">
-        <v>1.097251204627552</v>
+        <v>1.100103327275348</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4687021260694016</v>
       </c>
       <c r="E41" t="n">
-        <v>3.087505516384115</v>
+        <v>3.091187147108837</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.650138890944457</v>
+        <v>-2.656794630798877</v>
       </c>
       <c r="G41" t="n">
-        <v>1.065223063547325</v>
+        <v>1.068298696910347</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3915617007404565</v>
       </c>
       <c r="E42" t="n">
-        <v>2.97305701205522</v>
+        <v>2.978323680035092</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.619123631168788</v>
+        <v>-2.626067416522406</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9811609983551407</v>
+        <v>0.9840162690411801</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3153607772939139</v>
       </c>
       <c r="E43" t="n">
-        <v>2.839307885260937</v>
+        <v>2.845575629401956</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.60217144523238</v>
+        <v>-2.609647249048997</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9290814276886649</v>
+        <v>0.9318768856480949</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2398924016381105</v>
       </c>
       <c r="E44" t="n">
-        <v>2.710376830996955</v>
+        <v>2.717620466993181</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.530546492127152</v>
+        <v>-2.537609115924429</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8648252450998068</v>
+        <v>0.8679811534380147</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1653159478658558</v>
       </c>
       <c r="E45" t="n">
-        <v>2.513704715809555</v>
+        <v>2.521027052761846</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.465223124574052</v>
+        <v>-2.472075616818635</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8347850901697832</v>
+        <v>0.8381424729555176</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.09190632980445863</v>
       </c>
       <c r="E46" t="n">
-        <v>2.387605321944793</v>
+        <v>2.395596617023637</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.425365812384476</v>
+        <v>-2.432980129883768</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7714670229772205</v>
+        <v>0.7747929253805288</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.01954367847126024</v>
       </c>
       <c r="E47" t="n">
-        <v>2.224590457628167</v>
+        <v>2.232499903712702</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.290592786151787</v>
+        <v>-2.297098994189684</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7150951021669576</v>
+        <v>0.7184461888762068</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.05155376982064051</v>
       </c>
       <c r="E48" t="n">
-        <v>2.136295855018804</v>
+        <v>2.145126102289301</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.249331448906011</v>
+        <v>-2.256694710355455</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6663493039993966</v>
+        <v>0.669805849989773</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1209743691846545</v>
       </c>
       <c r="E49" t="n">
-        <v>1.982936023992236</v>
+        <v>1.992093667239963</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.197411641180347</v>
+        <v>-2.204861473681463</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5918273687014156</v>
+        <v>0.5954790930628332</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1882590666505726</v>
       </c>
       <c r="E50" t="n">
-        <v>1.889744647896507</v>
+        <v>1.898927475450175</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.149980148979072</v>
+        <v>-2.157442573633158</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5351768465066825</v>
+        <v>0.5386507067073931</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2526047301397512</v>
       </c>
       <c r="E51" t="n">
-        <v>1.765880361183992</v>
+        <v>1.774926249074107</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.099905878673133</v>
+        <v>-2.107553250573972</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4900890687770244</v>
+        <v>0.4935849652454332</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3134571212461806</v>
       </c>
       <c r="E52" t="n">
-        <v>1.654414623089963</v>
+        <v>1.66314885519406</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.982200728782268</v>
+        <v>-1.988515693496926</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4545146626165075</v>
+        <v>0.4580294473143719</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3702133177326494</v>
       </c>
       <c r="E53" t="n">
-        <v>1.610759202760688</v>
+        <v>1.620499233083297</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.922682343748525</v>
+        <v>-1.928991799396259</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3834791796722075</v>
+        <v>0.3864273174864036</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.4222445568397178</v>
       </c>
       <c r="E54" t="n">
-        <v>1.56707545008723</v>
+        <v>1.578025901114119</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.912174979104282</v>
+        <v>-1.918861412331567</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3491010280438791</v>
+        <v>0.3520806462405013</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4689993579385608</v>
       </c>
       <c r="E55" t="n">
-        <v>1.511940708306309</v>
+        <v>1.523545951287659</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.847195534729186</v>
+        <v>-1.853448325688553</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3220719716929037</v>
+        <v>0.3253050069680553</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.5105922281947155</v>
       </c>
       <c r="E56" t="n">
-        <v>1.453679964550486</v>
+        <v>1.466062772977758</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.785545927805202</v>
+        <v>-1.791176981211656</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2150433935018208</v>
+        <v>0.2170801742447839</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.5474173352244096</v>
       </c>
       <c r="E57" t="n">
-        <v>1.463331849802302</v>
+        <v>1.476479631522526</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.783295867471303</v>
+        <v>-1.788845858893009</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2157879045461961</v>
+        <v>0.2181583773428749</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5800901938558123</v>
       </c>
       <c r="E58" t="n">
-        <v>1.44816617556857</v>
+        <v>1.462226888379149</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.76841981275589</v>
+        <v>-1.773860409848666</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2112783397636696</v>
+        <v>0.2137873262430229</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.6097474415897801</v>
       </c>
       <c r="E59" t="n">
-        <v>1.43618631603635</v>
+        <v>1.451032464388458</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.732228391099824</v>
+        <v>-1.736868599469418</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1375575801984306</v>
+        <v>0.1394526992204766</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6378787346446404</v>
       </c>
       <c r="E60" t="n">
-        <v>1.468522964864351</v>
+        <v>1.485217011664866</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.764454071579773</v>
+        <v>-1.769536579322453</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1173109722411398</v>
+        <v>0.1193225686781621</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6657316807719742</v>
       </c>
       <c r="E61" t="n">
-        <v>1.465954165658389</v>
+        <v>1.483496608765285</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.782789033314244</v>
+        <v>-1.787943945936504</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1295096204312202</v>
+        <v>0.1319855525090262</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6937037517673259</v>
       </c>
       <c r="E62" t="n">
-        <v>1.476410374681189</v>
+        <v>1.495123888014333</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.826564866106298</v>
+        <v>-1.832023564418969</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04229007288170646</v>
+        <v>0.04398214343710469</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.7216318623981866</v>
       </c>
       <c r="E63" t="n">
-        <v>1.46277307301424</v>
+        <v>1.482251559640336</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.787851865817908</v>
+        <v>-1.79238031882989</v>
       </c>
       <c r="G63" t="n">
-        <v>0.008045712878688691</v>
+        <v>0.009641768267687589</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.749118685609844</v>
       </c>
       <c r="E64" t="n">
-        <v>1.464118859362952</v>
+        <v>1.484225379618447</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.815339748742743</v>
+        <v>-1.819954772806396</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02226674735931996</v>
+        <v>-0.02063291551140984</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7754301020776929</v>
       </c>
       <c r="E65" t="n">
-        <v>1.473997403368235</v>
+        <v>1.49537415705462</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.840812100182752</v>
+        <v>-1.845428698265526</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02537228708564621</v>
+        <v>-0.02364873614782196</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7989482618067952</v>
       </c>
       <c r="E66" t="n">
-        <v>1.437744594966438</v>
+        <v>1.458650716935553</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.846273946533665</v>
+        <v>-1.85041912588961</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03365162766368783</v>
+        <v>-0.03200520366280731</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8182911666134239</v>
       </c>
       <c r="E67" t="n">
-        <v>1.403090989991882</v>
+        <v>1.424686532336127</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.858228621759944</v>
+        <v>-1.861929927723682</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05273975754770127</v>
+        <v>-0.05108074139385035</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.8324490718008363</v>
       </c>
       <c r="E68" t="n">
-        <v>1.35292857461515</v>
+        <v>1.374752349731984</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.888267989680407</v>
+        <v>-1.891579725911623</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0601219072266015</v>
+        <v>-0.05825984260610279</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8409849821924795</v>
       </c>
       <c r="E69" t="n">
-        <v>1.249419503179296</v>
+        <v>1.270213869790799</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.909723444322856</v>
+        <v>-1.91288643574711</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.0823376131046394</v>
+        <v>-0.08061091412857255</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.843796674934095</v>
       </c>
       <c r="E70" t="n">
-        <v>1.265528014866687</v>
+        <v>1.287498173761802</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.915328526413808</v>
+        <v>-1.917520348040219</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05125230947807212</v>
+        <v>-0.04909905132013278</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8409720768432604</v>
       </c>
       <c r="E71" t="n">
-        <v>1.258271786717491</v>
+        <v>1.280352126951097</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.94983181256228</v>
+        <v>-1.951582121825166</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.0711085606932803</v>
+        <v>-0.06864364674932343</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8330402680962535</v>
       </c>
       <c r="E72" t="n">
-        <v>1.24170366144668</v>
+        <v>1.264223153015129</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.979401335775034</v>
+        <v>-1.980827397098933</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1060140087272444</v>
+        <v>-0.1039268593723996</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8204126893290755</v>
       </c>
       <c r="E73" t="n">
-        <v>1.246317111491212</v>
+        <v>1.269277328413625</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.979225832643009</v>
+        <v>-1.980447271481139</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09339667145089804</v>
+        <v>-0.09111749176325463</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8025324264971146</v>
       </c>
       <c r="E74" t="n">
-        <v>1.240499536818885</v>
+        <v>1.26422472703425</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.987378464681786</v>
+        <v>-1.98814501199386</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07441400084801174</v>
+        <v>-0.07169252178728285</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7784773328841891</v>
       </c>
       <c r="E75" t="n">
-        <v>1.184949253989941</v>
+        <v>1.20801335617436</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.020133802596054</v>
+        <v>-2.02086729550658</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04655228838186826</v>
+        <v>-0.04351443147775794</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7478926970140507</v>
       </c>
       <c r="E76" t="n">
-        <v>1.220073490681766</v>
+        <v>1.243542115780359</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.023627338035781</v>
+        <v>-2.023805202196487</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02680779252427244</v>
+        <v>-0.02339531906929255</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.710651318775921</v>
       </c>
       <c r="E77" t="n">
-        <v>1.154685588344692</v>
+        <v>1.177585992540496</v>
       </c>
       <c r="F77" t="n">
         <v>-2.021229319904479</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.0283188508807211</v>
+        <v>-0.02518812684845403</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6673142486146753</v>
       </c>
       <c r="E78" t="n">
-        <v>1.174340365112374</v>
+        <v>1.196900781177977</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.031894086460852</v>
+        <v>-2.031753211749495</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02324263921452638</v>
+        <v>-0.01998127159519136</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.619012943321128</v>
       </c>
       <c r="E79" t="n">
-        <v>1.160279652301795</v>
+        <v>1.182210460718877</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.008895306069967</v>
+        <v>-2.008658416192211</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04474688844973638</v>
+        <v>-0.04186800747687742</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5663410407332031</v>
       </c>
       <c r="E80" t="n">
-        <v>1.139516766072718</v>
+        <v>1.159730319628461</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.970612013001692</v>
+        <v>-1.970498683624958</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02853134346209669</v>
+        <v>-0.02555329928459579</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.509611439106698</v>
       </c>
       <c r="E81" t="n">
-        <v>1.164435062782029</v>
+        <v>1.183449213767341</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.923943920074247</v>
+        <v>-1.923527592016663</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.008769533394166557</v>
+        <v>-0.005786767159301753</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.449511821056874</v>
       </c>
       <c r="E82" t="n">
-        <v>1.223071997107843</v>
+        <v>1.24187365551178</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.951826094788968</v>
+        <v>-1.952426583083744</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01888440854796523</v>
+        <v>0.02212216588048074</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3866118712545868</v>
       </c>
       <c r="E83" t="n">
-        <v>1.310142012840834</v>
+        <v>1.327992963695505</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.847031836740571</v>
+        <v>-1.8474292765687</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01153531327061232</v>
+        <v>0.01420642371945958</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3212340815082869</v>
       </c>
       <c r="E84" t="n">
-        <v>1.304955619836148</v>
+        <v>1.320522668945812</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.785904804164859</v>
+        <v>-1.786872038914898</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02207809334508432</v>
+        <v>0.02455402542289031</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2545923394514591</v>
       </c>
       <c r="E85" t="n">
-        <v>1.414326338479726</v>
+        <v>1.428566489470133</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.757566163904961</v>
+        <v>-1.759668266441458</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01592840063816254</v>
+        <v>0.01801869803124985</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1883970115891231</v>
       </c>
       <c r="E86" t="n">
-        <v>1.659593145999042</v>
+        <v>1.673475994648914</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.652856902889115</v>
+        <v>-1.65540445283694</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03184488199275509</v>
+        <v>0.03365342996312958</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1252096458700966</v>
       </c>
       <c r="E87" t="n">
-        <v>1.595001697337347</v>
+        <v>1.60503764325476</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.532798594411905</v>
+        <v>-1.536005658371555</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0526974873117466</v>
+        <v>0.05435335542735493</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.06840105205158203</v>
       </c>
       <c r="E88" t="n">
-        <v>1.74276431636857</v>
+        <v>1.752120286025582</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.33303353165115</v>
+        <v>-1.335915560662251</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08939731714399343</v>
+        <v>0.09099179851387104</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.02200996922975312</v>
       </c>
       <c r="E89" t="n">
-        <v>1.910628733597925</v>
+        <v>1.919027699629185</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.158101768567155</v>
+        <v>-1.160635152342889</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1131350995123291</v>
+        <v>0.1146855083468103</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.01072885394939844</v>
       </c>
       <c r="E90" t="n">
-        <v>1.932277792592294</v>
+        <v>1.938536092618586</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9178190925954379</v>
+        <v>-0.9199227691510563</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1419632597189512</v>
+        <v>0.1435498709932223</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.02726531522863734</v>
       </c>
       <c r="E91" t="n">
-        <v>1.970908943886377</v>
+        <v>1.976474675499296</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6655699362540324</v>
+        <v>-0.6675689405380842</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09530303688711363</v>
+        <v>0.09601134549169893</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.02545848971610364</v>
       </c>
       <c r="E92" t="n">
-        <v>1.986823851221848</v>
+        <v>1.992315603936067</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4601777551346269</v>
+        <v>-0.4622428682217734</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1065006089160467</v>
+        <v>0.1074056699107946</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.005914401122636644</v>
       </c>
       <c r="E93" t="n">
-        <v>1.960278018741112</v>
+        <v>1.965618665619685</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2396954526993118</v>
+        <v>-0.2412301213425799</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09164973850657472</v>
+        <v>0.09240369366567776</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.02635856080443953</v>
       </c>
       <c r="E94" t="n">
-        <v>1.847751391759326</v>
+        <v>1.852549002041051</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05660240047137316</v>
+        <v>-0.05809771863660881</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06640719385827559</v>
+        <v>0.06707457796570708</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.06322691782638173</v>
       </c>
       <c r="E95" t="n">
-        <v>1.796739006057092</v>
+        <v>1.80099672778021</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07474792118204794</v>
+        <v>0.07287483842770012</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05390475997778423</v>
+        <v>0.05484759743144334</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0966542642506137</v>
       </c>
       <c r="E96" t="n">
-        <v>1.668777547571831</v>
+        <v>1.672616580208684</v>
       </c>
       <c r="F96" t="n">
-        <v>0.147840647117888</v>
+        <v>0.1459596942679336</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005509739793952832</v>
+        <v>-0.004972999273589298</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1208972131966099</v>
       </c>
       <c r="E97" t="n">
-        <v>1.503617295192871</v>
+        <v>1.505954713588003</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1521235531469471</v>
+        <v>0.1494288324112804</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02078716938529731</v>
+        <v>-0.02017487594711134</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1362865515828783</v>
       </c>
       <c r="E98" t="n">
-        <v>1.39013996066182</v>
+        <v>1.392027209588259</v>
       </c>
       <c r="F98" t="n">
-        <v>0.180029338148487</v>
+        <v>0.177652569275323</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05907675853005784</v>
+        <v>-0.05821734408982766</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1467576848401317</v>
       </c>
       <c r="E99" t="n">
-        <v>1.250785751776585</v>
+        <v>1.251701830905182</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1830341406510501</v>
+        <v>0.1805550605350015</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09861926689537372</v>
+        <v>-0.09807465627940368</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1600315082535198</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091835004831156</v>
+        <v>1.092038053297804</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2386206259197838</v>
+        <v>0.2373503924888942</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1456572543163235</v>
+        <v>-0.1455360548439833</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1769194001012593</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9106071652619587</v>
+        <v>0.909080366714297</v>
       </c>
       <c r="F101" t="n">
-        <v>0.220771249084234</v>
+        <v>0.219231858383602</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1714585757526843</v>
+        <v>-0.1712539532669153</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2001366751188043</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8505237073636688</v>
+        <v>0.8496076282350719</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2587035358884593</v>
+        <v>0.2578063449893179</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2094223429393356</v>
+        <v>-0.2093593821744836</v>
       </c>
     </row>
   </sheetData>
